--- a/reflectance_results.xlsx
+++ b/reflectance_results.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,42 +476,107 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>B1_实测</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>B1_提取</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>B1_差值</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>B1_差值/实测</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>B2_实测</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>B2_提取</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>B2_差值</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>B2_差值/实测</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>B3_实测</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>B3_提取</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>B3_差值</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>B3_差值/实测</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>B4_实测</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>B4_提取</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>B4_差值</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>B4_差值/实测</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>R²</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>相关系数</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>均方根误差</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>平均绝对百分比误差</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
           <t>匹配影像</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>B1_实测</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>B1_提取</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>B2_实测</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>B2_提取</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>B3_实测</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>B3_提取</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>R²</t>
         </is>
       </c>
     </row>
@@ -537,8 +598,10 @@
       <c r="E2" t="n">
         <v>925.6</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>45250.43905092592</v>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2023-11-20 10:32:14</t>
+        </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -550,31 +613,268 @@
           <t>植被,其他</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>0.05816399276390612</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.0577</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.0004639927639061153</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-0.007977319675929259</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.07790951798892083</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.0786</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.0006904820110791715</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.008862614336509717</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.1164580872728641</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.0939</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-0.0225580872728641</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-0.1937013375465283</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.208225757397721</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1392</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-0.06902575739772102</v>
+      </c>
+      <c r="X2" t="n">
+        <v>-0.3314948076566655</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.6034220068790446</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9916676803566293</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.03631154961039178</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.1355090198039082</v>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>GF2_PMS2_E110.3_N37.5_20231122_L1A13489459001-MSS2.tif</t>
         </is>
       </c>
-      <c r="J2" t="n">
-        <v>0.058163993</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.0577</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.077909518</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0786</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.116458087</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.0939</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.7101526280022221</v>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>110.29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.50722222222223</v>
+      </c>
+      <c r="E3" t="n">
+        <v>960.9299999999999</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2023-11-20 11:34:42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>水泥路</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1194284062197748</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.0693</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.0501284062197748</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.4197360394103175</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1447497318825399</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0956</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.04914973188253989</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.3395497265751306</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1693555346521621</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.1179</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.0514555346521621</v>
+      </c>
+      <c r="T3" t="n">
+        <v>-0.3038314322460508</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.223213259189483</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1491</v>
+      </c>
+      <c r="W3" t="n">
+        <v>-0.074113259189483</v>
+      </c>
+      <c r="X3" t="n">
+        <v>-0.3320289281138499</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-1.218110431484648</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9887062225454389</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.05715986460858627</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.3487865315863372</v>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>GF2_PMS2_E110.3_N37.5_20231122_L1A13489459001-MSS2.tif</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>110.2897222222222</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.50583333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>952.4</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2023-11-20 10:00:43</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>水泥路</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.124383698774945</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.0502</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.07418369877494499</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.5964101365820458</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1689350546409091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.0559</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-0.1130350546409091</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-0.6691036083729225</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.2178066192957548</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.1531066192957548</v>
+      </c>
+      <c r="T4" t="n">
+        <v>-0.702947503573593</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.248114413385073</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1106</v>
+      </c>
+      <c r="W4" t="n">
+        <v>-0.137514413385073</v>
+      </c>
+      <c r="X4" t="n">
+        <v>-0.5542379078624946</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-5.812905618307337</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.8479454018371335</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.1231178251741203</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.630674789097764</v>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>GF2_PMS2_E110.3_N37.5_20231122_L1A13489459001-MSS2.tif</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/reflectance_results.xlsx
+++ b/reflectance_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,90 +491,70 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>B1_差值/实测</t>
+          <t>B2_实测</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>B2_实测</t>
+          <t>B2_提取</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>B2_提取</t>
+          <t>B2_差值</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>B2_差值</t>
+          <t>B3_实测</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>B2_差值/实测</t>
+          <t>B3_提取</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>B3_实测</t>
+          <t>B3_差值</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>B3_提取</t>
+          <t>B4_实测</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>B3_差值</t>
+          <t>B4_提取</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>B3_差值/实测</t>
+          <t>B4_差值</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>B4_实测</t>
+          <t>均方根误差</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>B4_提取</t>
+          <t>平均绝对百分比误差</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>B4_差值</t>
+          <t>相关系数</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>B4_差值/实测</t>
+          <t>R²</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>R²</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>相关系数</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>均方根误差</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>平均绝对百分比误差</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>匹配影像</t>
         </is>
@@ -623,57 +603,45 @@
         <v>-0.0004639927639061153</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.007977319675929259</v>
+        <v>0.07790951798892083</v>
       </c>
       <c r="M2" t="n">
-        <v>0.07790951798892083</v>
+        <v>0.0786</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0786</v>
+        <v>0.0006904820110791715</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0006904820110791715</v>
+        <v>0.1164580872728641</v>
       </c>
       <c r="P2" t="n">
-        <v>0.008862614336509717</v>
+        <v>0.0939</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1164580872728641</v>
+        <v>-0.0225580872728641</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0939</v>
+        <v>0.208225757397721</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0225580872728641</v>
+        <v>0.1392</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.1937013375465283</v>
+        <v>-0.06902575739772102</v>
       </c>
       <c r="U2" t="n">
-        <v>0.208225757397721</v>
+        <v>0.03631154961039178</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1392</v>
+        <v>0.1355090198039082</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.06902575739772102</v>
+        <v>0.9916676803566293</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.3314948076566655</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.6034220068790446</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.9916676803566293</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.03631154961039178</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.1355090198039082</v>
-      </c>
-      <c r="AC2" t="inlineStr">
+        <v>0.983404788263898</v>
+      </c>
+      <c r="Y2" t="inlineStr">
         <is>
           <t>GF2_PMS2_E110.3_N37.5_20231122_L1A13489459001-MSS2.tif</t>
         </is>
@@ -722,57 +690,45 @@
         <v>-0.0501284062197748</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4197360394103175</v>
+        <v>0.1447497318825399</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1447497318825399</v>
+        <v>0.0956</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0956</v>
+        <v>-0.04914973188253989</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.04914973188253989</v>
+        <v>0.1693555346521621</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.3395497265751306</v>
+        <v>0.1179</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1693555346521621</v>
+        <v>-0.0514555346521621</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1179</v>
+        <v>0.223213259189483</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0514555346521621</v>
+        <v>0.1491</v>
       </c>
       <c r="T3" t="n">
-        <v>-0.3038314322460508</v>
+        <v>-0.074113259189483</v>
       </c>
       <c r="U3" t="n">
-        <v>0.223213259189483</v>
+        <v>0.05715986460858627</v>
       </c>
       <c r="V3" t="n">
-        <v>0.1491</v>
+        <v>0.3487865315863372</v>
       </c>
       <c r="W3" t="n">
-        <v>-0.074113259189483</v>
+        <v>0.9887062225454389</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.3320289281138499</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>-1.218110431484648</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.9887062225454389</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.05715986460858627</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.3487865315863372</v>
-      </c>
-      <c r="AC3" t="inlineStr">
+        <v>0.977539994500071</v>
+      </c>
+      <c r="Y3" t="inlineStr">
         <is>
           <t>GF2_PMS2_E110.3_N37.5_20231122_L1A13489459001-MSS2.tif</t>
         </is>
@@ -821,57 +777,45 @@
         <v>-0.07418369877494499</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.5964101365820458</v>
+        <v>0.1689350546409091</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1689350546409091</v>
+        <v>0.0559</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0559</v>
+        <v>-0.1130350546409091</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1130350546409091</v>
+        <v>0.2178066192957548</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.6691036083729225</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.2178066192957548</v>
+        <v>-0.1531066192957548</v>
       </c>
       <c r="R4" t="n">
-        <v>0.06469999999999999</v>
+        <v>0.248114413385073</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.1531066192957548</v>
+        <v>0.1106</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.702947503573593</v>
+        <v>-0.137514413385073</v>
       </c>
       <c r="U4" t="n">
-        <v>0.248114413385073</v>
+        <v>0.1231178251741203</v>
       </c>
       <c r="V4" t="n">
-        <v>0.1106</v>
+        <v>0.630674789097764</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.137514413385073</v>
+        <v>0.8479454018371335</v>
       </c>
       <c r="X4" t="n">
-        <v>-0.5542379078624946</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>-5.812905618307337</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.8479454018371335</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0.1231178251741203</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.630674789097764</v>
-      </c>
-      <c r="AC4" t="inlineStr">
+        <v>0.7190114044967378</v>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>GF2_PMS2_E110.3_N37.5_20231122_L1A13489459001-MSS2.tif</t>
         </is>
